--- a/참고자료/매입매출데이터-원본32.xlsx
+++ b/참고자료/매입매출데이터-원본32.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="원장" sheetId="1" r:id="rId1"/>
     <sheet name="매입데이터" sheetId="3" r:id="rId2"/>
     <sheet name="매출데이터" sheetId="4" r:id="rId3"/>
     <sheet name="상품정보" sheetId="5" r:id="rId4"/>
-    <sheet name="회사정보" sheetId="6" r:id="rId5"/>
-    <sheet name="거래처정보" sheetId="7" r:id="rId6"/>
+    <sheet name="거래처정보" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="iolist" localSheetId="1">매입데이터!$B$2:$I$492</definedName>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6513" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="1768">
   <si>
     <t xml:space="preserve"> 옥동자(초코)</t>
   </si>
@@ -6069,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J495"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -22849,7 +22848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -53457,9921 +53456,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N394"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D1" t="s">
-        <v>892</v>
-      </c>
-      <c r="E1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F1" t="s">
-        <v>894</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1" t="s">
-        <v>883</v>
-      </c>
-      <c r="I1" t="s">
-        <v>884</v>
-      </c>
-      <c r="J1" t="s">
-        <v>886</v>
-      </c>
-      <c r="K1" t="s">
-        <v>888</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2">
-        <v>384</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>IF(C2 = 0,INT((D2 * 0.8)/1.1),C2)</f>
-        <v>384</v>
-      </c>
-      <c r="F2">
-        <f>IF(D2=0,INT( ((C2*1.2)*1.1)/10)*10,D2)</f>
-        <v>500</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>C2*1.2</f>
-        <v>460.79999999999995</v>
-      </c>
-      <c r="I2">
-        <f>H2*1.1</f>
-        <v>506.88</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>885</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="L2">
-        <f>D2 * 0.8</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>897</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>700</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">IF(C3 = 0,INT((D3 * 0.8)/1.1),C3)</f>
-        <v>509</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">IF(D3=0,INT( ((C3*1.2)*1.1)/10)*10,D3)</f>
-        <v>700</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>898</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4">
-        <v>2745</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2745</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>3620</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>899</v>
-      </c>
-      <c r="B5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3000</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2181</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>900</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>2196</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2196</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2890</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>901</v>
-      </c>
-      <c r="B7" t="s">
-        <v>813</v>
-      </c>
-      <c r="C7">
-        <v>549</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>549</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>902</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>327</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>430</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>903</v>
-      </c>
-      <c r="B9" t="s">
-        <v>810</v>
-      </c>
-      <c r="C9">
-        <v>384</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>904</v>
-      </c>
-      <c r="B10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10">
-        <v>384</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>905</v>
-      </c>
-      <c r="B11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11">
-        <v>655</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>655</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>860</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>906</v>
-      </c>
-      <c r="B12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>5000</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>3636</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B13" t="s">
-        <v>698</v>
-      </c>
-      <c r="C13">
-        <v>327</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>430</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>908</v>
-      </c>
-      <c r="B14" t="s">
-        <v>572</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>909</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>500</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>910</v>
-      </c>
-      <c r="B16" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>911</v>
-      </c>
-      <c r="B17" t="s">
-        <v>854</v>
-      </c>
-      <c r="C17">
-        <v>524</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>524</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>912</v>
-      </c>
-      <c r="B18" t="s">
-        <v>600</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>913</v>
-      </c>
-      <c r="B19" t="s">
-        <v>738</v>
-      </c>
-      <c r="C19">
-        <v>655</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>655</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>860</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>914</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>2745</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>2745</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>3620</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>915</v>
-      </c>
-      <c r="B21" t="s">
-        <v>678</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>5000</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>3636</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>916</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22">
-        <v>1647</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>1647</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>2170</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>917</v>
-      </c>
-      <c r="B23" t="s">
-        <v>785</v>
-      </c>
-      <c r="C23">
-        <v>327</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>430</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>918</v>
-      </c>
-      <c r="B24" t="s">
-        <v>794</v>
-      </c>
-      <c r="C24">
-        <v>274</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>919</v>
-      </c>
-      <c r="B25" t="s">
-        <v>724</v>
-      </c>
-      <c r="C25">
-        <v>655</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>655</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>860</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>920</v>
-      </c>
-      <c r="B26" t="s">
-        <v>362</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>500</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>921</v>
-      </c>
-      <c r="B27" t="s">
-        <v>682</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>4000</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>2909</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>922</v>
-      </c>
-      <c r="B28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28">
-        <v>2196</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2196</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>2890</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>923</v>
-      </c>
-      <c r="B29" t="s">
-        <v>346</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>5000</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>3636</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>924</v>
-      </c>
-      <c r="B30" t="s">
-        <v>744</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>4000</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>2909</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>925</v>
-      </c>
-      <c r="B31" t="s">
-        <v>831</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1500</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>926</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1000</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>927</v>
-      </c>
-      <c r="B33" t="s">
-        <v>445</v>
-      </c>
-      <c r="C33">
-        <v>549</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>549</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>928</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>887</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>887</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>1170</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>929</v>
-      </c>
-      <c r="B35" t="s">
-        <v>464</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>4000</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>2909</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>930</v>
-      </c>
-      <c r="B36" t="s">
-        <v>697</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>600</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>436</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>931</v>
-      </c>
-      <c r="B37" t="s">
-        <v>825</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1500</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>932</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>497</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>497</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>650</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>933</v>
-      </c>
-      <c r="B39" t="s">
-        <v>655</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>600</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>436</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>934</v>
-      </c>
-      <c r="B40" t="s">
-        <v>414</v>
-      </c>
-      <c r="C40">
-        <v>411</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>411</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>935</v>
-      </c>
-      <c r="B41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>900</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>654</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>936</v>
-      </c>
-      <c r="B42" t="s">
-        <v>513</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>900</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>654</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>937</v>
-      </c>
-      <c r="B43" t="s">
-        <v>717</v>
-      </c>
-      <c r="C43">
-        <v>386</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>938</v>
-      </c>
-      <c r="B44" t="s">
-        <v>561</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>600</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>436</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>939</v>
-      </c>
-      <c r="B45" t="s">
-        <v>525</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>800</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>581</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>940</v>
-      </c>
-      <c r="B46" t="s">
-        <v>547</v>
-      </c>
-      <c r="C46">
-        <v>386</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>941</v>
-      </c>
-      <c r="B47" t="s">
-        <v>729</v>
-      </c>
-      <c r="C47">
-        <v>386</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>942</v>
-      </c>
-      <c r="B48" t="s">
-        <v>676</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>12000</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>8727</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>943</v>
-      </c>
-      <c r="B49" t="s">
-        <v>680</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>800</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>581</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>944</v>
-      </c>
-      <c r="B50" t="s">
-        <v>677</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1000</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>945</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1000</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>946</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52">
-        <v>655</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>655</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>860</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>947</v>
-      </c>
-      <c r="B53" t="s">
-        <v>816</v>
-      </c>
-      <c r="C53">
-        <v>591</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>591</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>948</v>
-      </c>
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54">
-        <v>650</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>850</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>949</v>
-      </c>
-      <c r="B55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1000</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>950</v>
-      </c>
-      <c r="B56" t="s">
-        <v>548</v>
-      </c>
-      <c r="C56">
-        <v>622</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>622</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>820</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>951</v>
-      </c>
-      <c r="B57" t="s">
-        <v>859</v>
-      </c>
-      <c r="C57">
-        <v>591</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>591</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>952</v>
-      </c>
-      <c r="B58" t="s">
-        <v>434</v>
-      </c>
-      <c r="C58">
-        <v>709</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>709</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>953</v>
-      </c>
-      <c r="B59" t="s">
-        <v>818</v>
-      </c>
-      <c r="C59">
-        <v>5327</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>5327</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>7030</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>954</v>
-      </c>
-      <c r="B60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60">
-        <v>976</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>976</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>955</v>
-      </c>
-      <c r="B61" t="s">
-        <v>704</v>
-      </c>
-      <c r="C61">
-        <v>976</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>976</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>956</v>
-      </c>
-      <c r="B62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>1500</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>957</v>
-      </c>
-      <c r="B63" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>1500</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>958</v>
-      </c>
-      <c r="B64" t="s">
-        <v>695</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>1500</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>959</v>
-      </c>
-      <c r="B65" t="s">
-        <v>739</v>
-      </c>
-      <c r="C65">
-        <v>6557</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>6557</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>8650</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>960</v>
-      </c>
-      <c r="B66" t="s">
-        <v>543</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>1800</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>1309</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>1800</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>961</v>
-      </c>
-      <c r="B67" t="s">
-        <v>423</v>
-      </c>
-      <c r="C67">
-        <v>1172</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">IF(C67 = 0,INT((D67 * 0.8)/1.1),C67)</f>
-        <v>1172</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" si="3">IF(D67=0,INT( ((C67*1.2)*1.1)/10)*10,D67)</f>
-        <v>1540</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>962</v>
-      </c>
-      <c r="B68" t="s">
-        <v>308</v>
-      </c>
-      <c r="C68">
-        <v>1121</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="2"/>
-        <v>1121</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="3"/>
-        <v>1470</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>963</v>
-      </c>
-      <c r="B69" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69">
-        <v>614</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="2"/>
-        <v>614</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
-        <v>810</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>964</v>
-      </c>
-      <c r="B70" t="s">
-        <v>329</v>
-      </c>
-      <c r="C70">
-        <v>491</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="2"/>
-        <v>491</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>965</v>
-      </c>
-      <c r="B71" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>2000</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="2"/>
-        <v>1454</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>966</v>
-      </c>
-      <c r="B72" t="s">
-        <v>642</v>
-      </c>
-      <c r="C72">
-        <v>9016</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="2"/>
-        <v>9016</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
-        <v>11900</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>967</v>
-      </c>
-      <c r="B73" t="s">
-        <v>304</v>
-      </c>
-      <c r="C73">
-        <v>1775</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>1775</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
-        <v>2340</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>968</v>
-      </c>
-      <c r="B74" t="s">
-        <v>450</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>500</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>969</v>
-      </c>
-      <c r="B75" t="s">
-        <v>855</v>
-      </c>
-      <c r="C75">
-        <v>311</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="2"/>
-        <v>311</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="3"/>
-        <v>410</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>970</v>
-      </c>
-      <c r="B76" t="s">
-        <v>411</v>
-      </c>
-      <c r="C76">
-        <v>295</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="2"/>
-        <v>295</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>971</v>
-      </c>
-      <c r="B77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77">
-        <v>2049</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="2"/>
-        <v>2049</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>972</v>
-      </c>
-      <c r="B78" t="s">
-        <v>394</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>5000</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="2"/>
-        <v>3636</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>973</v>
-      </c>
-      <c r="B79" t="s">
-        <v>848</v>
-      </c>
-      <c r="C79">
-        <v>295</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
-        <v>295</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>974</v>
-      </c>
-      <c r="B80" t="s">
-        <v>694</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>500</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>975</v>
-      </c>
-      <c r="B81" t="s">
-        <v>790</v>
-      </c>
-      <c r="C81">
-        <v>295</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
-        <v>295</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>976</v>
-      </c>
-      <c r="B82" t="s">
-        <v>373</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>500</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>977</v>
-      </c>
-      <c r="B83" t="s">
-        <v>333</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>500</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>978</v>
-      </c>
-      <c r="B84" t="s">
-        <v>451</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>6000</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="2"/>
-        <v>4363</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>979</v>
-      </c>
-      <c r="B85" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85">
-        <v>2049</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
-        <v>2049</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>980</v>
-      </c>
-      <c r="B86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>981</v>
-      </c>
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87">
-        <v>436</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
-        <v>436</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>982</v>
-      </c>
-      <c r="B88" t="s">
-        <v>721</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>700</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>983</v>
-      </c>
-      <c r="B89" t="s">
-        <v>592</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>8000</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="2"/>
-        <v>5818</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="3"/>
-        <v>8000</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>984</v>
-      </c>
-      <c r="B90" t="s">
-        <v>688</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>2500</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="2"/>
-        <v>1818</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>985</v>
-      </c>
-      <c r="B91" t="s">
-        <v>338</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>2000</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="2"/>
-        <v>1454</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>986</v>
-      </c>
-      <c r="B92" t="s">
-        <v>368</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>1100</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>987</v>
-      </c>
-      <c r="B93" t="s">
-        <v>494</v>
-      </c>
-      <c r="C93">
-        <v>651</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="2"/>
-        <v>651</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="3"/>
-        <v>850</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>988</v>
-      </c>
-      <c r="B94" t="s">
-        <v>584</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1000</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>989</v>
-      </c>
-      <c r="B95" t="s">
-        <v>460</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>500</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>990</v>
-      </c>
-      <c r="B96" t="s">
-        <v>754</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>1500</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="2"/>
-        <v>1090</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>991</v>
-      </c>
-      <c r="B97" t="s">
-        <v>489</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>500</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>992</v>
-      </c>
-      <c r="B98" t="s">
-        <v>714</v>
-      </c>
-      <c r="C98">
-        <v>221</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>993</v>
-      </c>
-      <c r="B99" t="s">
-        <v>475</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>700</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>994</v>
-      </c>
-      <c r="B100" t="s">
-        <v>771</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>5000</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="2"/>
-        <v>3636</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>995</v>
-      </c>
-      <c r="B101" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101">
-        <v>2622</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="2"/>
-        <v>2622</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="3"/>
-        <v>3460</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>996</v>
-      </c>
-      <c r="B102" t="s">
-        <v>355</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>4500</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="2"/>
-        <v>3272</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="3"/>
-        <v>4500</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>997</v>
-      </c>
-      <c r="B103" t="s">
-        <v>822</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>1500</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="2"/>
-        <v>1090</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>998</v>
-      </c>
-      <c r="B104" t="s">
-        <v>632</v>
-      </c>
-      <c r="C104">
-        <v>1180</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="2"/>
-        <v>1180</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="3"/>
-        <v>1550</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>999</v>
-      </c>
-      <c r="B105" t="s">
-        <v>804</v>
-      </c>
-      <c r="C105">
-        <v>6557</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="2"/>
-        <v>6557</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="3"/>
-        <v>8650</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B106" t="s">
-        <v>777</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>3000</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="2"/>
-        <v>2181</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B107" t="s">
-        <v>522</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>800</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="2"/>
-        <v>581</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B108" t="s">
-        <v>568</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>1200</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="2"/>
-        <v>872</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B109" t="s">
-        <v>454</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>500</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B110" t="s">
-        <v>732</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>1000</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B111" t="s">
-        <v>198</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>1500</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="2"/>
-        <v>1090</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B112" t="s">
-        <v>730</v>
-      </c>
-      <c r="C112">
-        <v>1147</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="2"/>
-        <v>1147</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="3"/>
-        <v>1510</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B113" t="s">
-        <v>781</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>700</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>1000</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B115" t="s">
-        <v>803</v>
-      </c>
-      <c r="C115">
-        <v>573</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="2"/>
-        <v>573</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B116" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116">
-        <v>491</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="2"/>
-        <v>491</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B117" t="s">
-        <v>606</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>700</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B118" t="s">
-        <v>689</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>1000</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B119" t="s">
-        <v>211</v>
-      </c>
-      <c r="C119">
-        <v>573</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="2"/>
-        <v>573</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B120" t="s">
-        <v>723</v>
-      </c>
-      <c r="C120">
-        <v>413</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="2"/>
-        <v>413</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B121" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121">
-        <v>2407</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="2"/>
-        <v>2407</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="3"/>
-        <v>3170</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B122" t="s">
-        <v>379</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>1500</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="2"/>
-        <v>1090</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B123" t="s">
-        <v>681</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>1000</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B124" t="s">
-        <v>113</v>
-      </c>
-      <c r="C124">
-        <v>245</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="2"/>
-        <v>245</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B125" t="s">
-        <v>687</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>1200</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="2"/>
-        <v>872</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B126" t="s">
-        <v>463</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>2500</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="2"/>
-        <v>1818</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B127" t="s">
-        <v>759</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>2500</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="2"/>
-        <v>1818</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B128" t="s">
-        <v>607</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>2500</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="2"/>
-        <v>1818</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B129" t="s">
-        <v>780</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>2500</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="2"/>
-        <v>1818</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B130" t="s">
-        <v>540</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>2500</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="2"/>
-        <v>1818</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B131" t="s">
-        <v>857</v>
-      </c>
-      <c r="C131">
-        <v>1434</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <f t="shared" ref="E131:E194" si="4">IF(C131 = 0,INT((D131 * 0.8)/1.1),C131)</f>
-        <v>1434</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F194" si="5">IF(D131=0,INT( ((C131*1.2)*1.1)/10)*10,D131)</f>
-        <v>1890</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B132" t="s">
-        <v>623</v>
-      </c>
-      <c r="C132">
-        <v>341</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="4"/>
-        <v>341</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="5"/>
-        <v>450</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B133" t="s">
-        <v>722</v>
-      </c>
-      <c r="C133">
-        <v>341</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="4"/>
-        <v>341</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="5"/>
-        <v>450</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B134" t="s">
-        <v>297</v>
-      </c>
-      <c r="C134">
-        <v>655</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="4"/>
-        <v>655</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="5"/>
-        <v>860</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B135" t="s">
-        <v>199</v>
-      </c>
-      <c r="C135">
-        <v>655</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="4"/>
-        <v>655</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="5"/>
-        <v>860</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B136" t="s">
-        <v>755</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>1200</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="4"/>
-        <v>872</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B137" t="s">
-        <v>635</v>
-      </c>
-      <c r="C137">
-        <v>1475</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="4"/>
-        <v>1475</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="5"/>
-        <v>1940</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B138" t="s">
-        <v>611</v>
-      </c>
-      <c r="C138">
-        <v>1549</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="4"/>
-        <v>1549</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="5"/>
-        <v>2040</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B139" t="s">
-        <v>763</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>18000</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="4"/>
-        <v>13090</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="5"/>
-        <v>18000</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B140" t="s">
-        <v>757</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>800</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="4"/>
-        <v>581</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B141" t="s">
-        <v>188</v>
-      </c>
-      <c r="C141">
-        <v>491</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="4"/>
-        <v>491</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="5"/>
-        <v>640</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B142" t="s">
-        <v>560</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>2000</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="4"/>
-        <v>1454</v>
-      </c>
-      <c r="F142">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B143" t="s">
-        <v>208</v>
-      </c>
-      <c r="C143">
-        <v>655</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="4"/>
-        <v>655</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="5"/>
-        <v>860</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B144" t="s">
-        <v>526</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>2500</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F144">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B145" t="s">
-        <v>858</v>
-      </c>
-      <c r="C145">
-        <v>515</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="4"/>
-        <v>515</v>
-      </c>
-      <c r="F145">
-        <f t="shared" si="5"/>
-        <v>670</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B146" t="s">
-        <v>664</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>600</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="4"/>
-        <v>436</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B147" t="s">
-        <v>98</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B148" t="s">
-        <v>578</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>800</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="4"/>
-        <v>581</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B149" t="s">
-        <v>531</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>2500</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B150" t="s">
-        <v>104</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>2500</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B151" t="s">
-        <v>537</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>500</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="4"/>
-        <v>363</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B152" t="s">
-        <v>603</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>2500</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B153" t="s">
-        <v>184</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>2500</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B154" t="s">
-        <v>602</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>2500</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F154">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B155" t="s">
-        <v>710</v>
-      </c>
-      <c r="C155">
-        <v>1844</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="4"/>
-        <v>1844</v>
-      </c>
-      <c r="F155">
-        <f t="shared" si="5"/>
-        <v>2430</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B156" t="s">
-        <v>468</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>2500</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F156">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B157" t="s">
-        <v>527</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>2500</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F157">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B158" t="s">
-        <v>341</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>2500</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F158">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B159" t="s">
-        <v>691</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>2500</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F159">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B160" t="s">
-        <v>205</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>2500</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F160">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B161" t="s">
-        <v>332</v>
-      </c>
-      <c r="C161">
-        <v>1844</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="4"/>
-        <v>1844</v>
-      </c>
-      <c r="F161">
-        <f t="shared" si="5"/>
-        <v>2430</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B162" t="s">
-        <v>283</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>900</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="4"/>
-        <v>654</v>
-      </c>
-      <c r="F162">
-        <f t="shared" si="5"/>
-        <v>900</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B163" t="s">
-        <v>612</v>
-      </c>
-      <c r="C163">
-        <v>2704</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="4"/>
-        <v>2704</v>
-      </c>
-      <c r="F163">
-        <f t="shared" si="5"/>
-        <v>3560</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B164" t="s">
-        <v>298</v>
-      </c>
-      <c r="C164">
-        <v>245</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="F164">
-        <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B165" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>700</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="4"/>
-        <v>509</v>
-      </c>
-      <c r="F165">
-        <f t="shared" si="5"/>
-        <v>700</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B166" t="s">
-        <v>737</v>
-      </c>
-      <c r="C166">
-        <v>1803</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="4"/>
-        <v>1803</v>
-      </c>
-      <c r="F166">
-        <f t="shared" si="5"/>
-        <v>2370</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B167" t="s">
-        <v>172</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>700</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="4"/>
-        <v>509</v>
-      </c>
-      <c r="F167">
-        <f t="shared" si="5"/>
-        <v>700</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B168" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168">
-        <v>245</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="F168">
-        <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B169" t="s">
-        <v>743</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>1800</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="4"/>
-        <v>1309</v>
-      </c>
-      <c r="F169">
-        <f t="shared" si="5"/>
-        <v>1800</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B170" t="s">
-        <v>101</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>700</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="4"/>
-        <v>509</v>
-      </c>
-      <c r="F170">
-        <f t="shared" si="5"/>
-        <v>700</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B171" t="s">
-        <v>446</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>1000</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="4"/>
-        <v>727</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B172" t="s">
-        <v>847</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>1500</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="4"/>
-        <v>1090</v>
-      </c>
-      <c r="F172">
-        <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B173" t="s">
-        <v>387</v>
-      </c>
-      <c r="C173">
-        <v>1639</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="4"/>
-        <v>1639</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="5"/>
-        <v>2160</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B174" t="s">
-        <v>269</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>3000</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="4"/>
-        <v>2181</v>
-      </c>
-      <c r="F174">
-        <f t="shared" si="5"/>
-        <v>3000</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B175" t="s">
-        <v>589</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>2500</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="4"/>
-        <v>1818</v>
-      </c>
-      <c r="F175">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B176" t="s">
-        <v>690</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>1800</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="4"/>
-        <v>1309</v>
-      </c>
-      <c r="F176">
-        <f t="shared" si="5"/>
-        <v>1800</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B177" t="s">
-        <v>401</v>
-      </c>
-      <c r="C177">
-        <v>327</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="4"/>
-        <v>327</v>
-      </c>
-      <c r="F177">
-        <f t="shared" si="5"/>
-        <v>430</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B178" t="s">
-        <v>652</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>600</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="4"/>
-        <v>436</v>
-      </c>
-      <c r="F178">
-        <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B179" t="s">
-        <v>852</v>
-      </c>
-      <c r="C179">
-        <v>311</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="4"/>
-        <v>311</v>
-      </c>
-      <c r="F179">
-        <f t="shared" si="5"/>
-        <v>410</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B180" t="s">
-        <v>437</v>
-      </c>
-      <c r="C180">
-        <v>622</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="4"/>
-        <v>622</v>
-      </c>
-      <c r="F180">
-        <f t="shared" si="5"/>
-        <v>820</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B181" t="s">
-        <v>518</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>1500</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="4"/>
-        <v>1090</v>
-      </c>
-      <c r="F181">
-        <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B182" t="s">
-        <v>645</v>
-      </c>
-      <c r="C182">
-        <v>491</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="4"/>
-        <v>491</v>
-      </c>
-      <c r="F182">
-        <f t="shared" si="5"/>
-        <v>640</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B183" t="s">
-        <v>212</v>
-      </c>
-      <c r="C183">
-        <v>7377</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="4"/>
-        <v>7377</v>
-      </c>
-      <c r="F183">
-        <f t="shared" si="5"/>
-        <v>9730</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B184" t="s">
-        <v>524</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>1200</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="4"/>
-        <v>872</v>
-      </c>
-      <c r="F184">
-        <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B185" t="s">
-        <v>58</v>
-      </c>
-      <c r="C185">
-        <v>647</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <f t="shared" si="4"/>
-        <v>647</v>
-      </c>
-      <c r="F185">
-        <f t="shared" si="5"/>
-        <v>850</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B186" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186">
-        <v>2065</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <f t="shared" si="4"/>
-        <v>2065</v>
-      </c>
-      <c r="F186">
-        <f t="shared" si="5"/>
-        <v>2720</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B187" t="s">
-        <v>312</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>2800</v>
-      </c>
-      <c r="E187">
-        <f t="shared" si="4"/>
-        <v>2036</v>
-      </c>
-      <c r="F187">
-        <f t="shared" si="5"/>
-        <v>2800</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B188" t="s">
-        <v>583</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>2800</v>
-      </c>
-      <c r="E188">
-        <f t="shared" si="4"/>
-        <v>2036</v>
-      </c>
-      <c r="F188">
-        <f t="shared" si="5"/>
-        <v>2800</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B189" t="s">
-        <v>648</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>3000</v>
-      </c>
-      <c r="E189">
-        <f t="shared" si="4"/>
-        <v>2181</v>
-      </c>
-      <c r="F189">
-        <f t="shared" si="5"/>
-        <v>3000</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B190" t="s">
-        <v>301</v>
-      </c>
-      <c r="C190">
-        <v>896</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <f t="shared" si="4"/>
-        <v>896</v>
-      </c>
-      <c r="F190">
-        <f t="shared" si="5"/>
-        <v>1180</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B191" t="s">
-        <v>842</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>1000</v>
-      </c>
-      <c r="E191">
-        <f t="shared" si="4"/>
-        <v>727</v>
-      </c>
-      <c r="F191">
-        <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B192" t="s">
-        <v>110</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>1500</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="4"/>
-        <v>1090</v>
-      </c>
-      <c r="F192">
-        <f t="shared" si="5"/>
-        <v>1500</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B193" t="s">
-        <v>398</v>
-      </c>
-      <c r="C193">
-        <v>1844</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="4"/>
-        <v>1844</v>
-      </c>
-      <c r="F193">
-        <f t="shared" si="5"/>
-        <v>2430</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B194" t="s">
-        <v>228</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>2000</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="4"/>
-        <v>1454</v>
-      </c>
-      <c r="F194">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B195" t="s">
-        <v>837</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>1000</v>
-      </c>
-      <c r="E195">
-        <f t="shared" ref="E195:E258" si="6">IF(C195 = 0,INT((D195 * 0.8)/1.1),C195)</f>
-        <v>727</v>
-      </c>
-      <c r="F195">
-        <f t="shared" ref="F195:F258" si="7">IF(D195=0,INT( ((C195*1.2)*1.1)/10)*10,D195)</f>
-        <v>1000</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B196" t="s">
-        <v>39</v>
-      </c>
-      <c r="C196">
-        <v>8240</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <f t="shared" si="6"/>
-        <v>8240</v>
-      </c>
-      <c r="F196">
-        <f t="shared" si="7"/>
-        <v>10870</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B197" t="s">
-        <v>770</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
-        <v>3000</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="6"/>
-        <v>2181</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B198" t="s">
-        <v>800</v>
-      </c>
-      <c r="C198">
-        <v>341</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <f t="shared" si="6"/>
-        <v>341</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B199" t="s">
-        <v>431</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>1500</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B200" t="s">
-        <v>216</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>1200</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="6"/>
-        <v>872</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="7"/>
-        <v>1200</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B201" t="s">
-        <v>382</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
-        <v>1300</v>
-      </c>
-      <c r="E201">
-        <f t="shared" si="6"/>
-        <v>945</v>
-      </c>
-      <c r="F201">
-        <f t="shared" si="7"/>
-        <v>1300</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B202" t="s">
-        <v>661</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>1800</v>
-      </c>
-      <c r="E202">
-        <f t="shared" si="6"/>
-        <v>1309</v>
-      </c>
-      <c r="F202">
-        <f t="shared" si="7"/>
-        <v>1800</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B203" t="s">
-        <v>554</v>
-      </c>
-      <c r="C203">
-        <v>413</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <f t="shared" si="6"/>
-        <v>413</v>
-      </c>
-      <c r="F203">
-        <f t="shared" si="7"/>
-        <v>540</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B204" t="s">
-        <v>488</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <v>1000</v>
-      </c>
-      <c r="E204">
-        <f t="shared" si="6"/>
-        <v>727</v>
-      </c>
-      <c r="F204">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B205" t="s">
-        <v>786</v>
-      </c>
-      <c r="C205">
-        <v>1639</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <f t="shared" si="6"/>
-        <v>1639</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="7"/>
-        <v>2160</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B206" t="s">
-        <v>769</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>1200</v>
-      </c>
-      <c r="E206">
-        <f t="shared" si="6"/>
-        <v>872</v>
-      </c>
-      <c r="F206">
-        <f t="shared" si="7"/>
-        <v>1200</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B207" t="s">
-        <v>709</v>
-      </c>
-      <c r="C207">
-        <v>1967</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <f t="shared" si="6"/>
-        <v>1967</v>
-      </c>
-      <c r="F207">
-        <f t="shared" si="7"/>
-        <v>2590</v>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B208" t="s">
-        <v>138</v>
-      </c>
-      <c r="C208">
-        <v>655</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <f t="shared" si="6"/>
-        <v>655</v>
-      </c>
-      <c r="F208">
-        <f t="shared" si="7"/>
-        <v>860</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B209" t="s">
-        <v>740</v>
-      </c>
-      <c r="C209">
-        <v>13934</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
-        <f t="shared" si="6"/>
-        <v>13934</v>
-      </c>
-      <c r="F209">
-        <f t="shared" si="7"/>
-        <v>18390</v>
-      </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B210" t="s">
-        <v>487</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
-        <v>1500</v>
-      </c>
-      <c r="E210">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F210">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B211" t="s">
-        <v>323</v>
-      </c>
-      <c r="C211">
-        <v>386</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <f t="shared" si="6"/>
-        <v>386</v>
-      </c>
-      <c r="F211">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B212" t="s">
-        <v>481</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <v>1000</v>
-      </c>
-      <c r="E212">
-        <f t="shared" si="6"/>
-        <v>727</v>
-      </c>
-      <c r="F212">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B213" t="s">
-        <v>501</v>
-      </c>
-      <c r="C213">
-        <v>0</v>
-      </c>
-      <c r="D213">
-        <v>1300</v>
-      </c>
-      <c r="E213">
-        <f t="shared" si="6"/>
-        <v>945</v>
-      </c>
-      <c r="F213">
-        <f t="shared" si="7"/>
-        <v>1300</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B214" t="s">
-        <v>555</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214">
-        <v>1000</v>
-      </c>
-      <c r="E214">
-        <f t="shared" si="6"/>
-        <v>727</v>
-      </c>
-      <c r="F214">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B215" t="s">
-        <v>674</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215">
-        <v>300</v>
-      </c>
-      <c r="E215">
-        <f t="shared" si="6"/>
-        <v>218</v>
-      </c>
-      <c r="F215">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="C216">
-        <v>295</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216">
-        <f t="shared" si="6"/>
-        <v>295</v>
-      </c>
-      <c r="F216">
-        <f t="shared" si="7"/>
-        <v>380</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B217" t="s">
-        <v>510</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <v>1100</v>
-      </c>
-      <c r="E217">
-        <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-      <c r="F217">
-        <f t="shared" si="7"/>
-        <v>1100</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B218" t="s">
-        <v>380</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>10000</v>
-      </c>
-      <c r="E218">
-        <f t="shared" si="6"/>
-        <v>7272</v>
-      </c>
-      <c r="F218">
-        <f t="shared" si="7"/>
-        <v>10000</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B219" t="s">
-        <v>675</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
-        <v>20000</v>
-      </c>
-      <c r="E219">
-        <f t="shared" si="6"/>
-        <v>14545</v>
-      </c>
-      <c r="F219">
-        <f t="shared" si="7"/>
-        <v>20000</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B220" t="s">
-        <v>616</v>
-      </c>
-      <c r="C220">
-        <v>1885</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
-        <f t="shared" si="6"/>
-        <v>1885</v>
-      </c>
-      <c r="F220">
-        <f t="shared" si="7"/>
-        <v>2480</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B221" t="s">
-        <v>407</v>
-      </c>
-      <c r="C221">
-        <v>1844</v>
-      </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
-        <f t="shared" si="6"/>
-        <v>1844</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="7"/>
-        <v>2430</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B222" t="s">
-        <v>383</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>1500</v>
-      </c>
-      <c r="E222">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F222">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B223" t="s">
-        <v>280</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223">
-        <v>1500</v>
-      </c>
-      <c r="E223">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F223">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B224" t="s">
-        <v>390</v>
-      </c>
-      <c r="C224">
-        <v>655</v>
-      </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="6"/>
-        <v>655</v>
-      </c>
-      <c r="F224">
-        <f t="shared" si="7"/>
-        <v>860</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B225" t="s">
-        <v>819</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225">
-        <v>1000</v>
-      </c>
-      <c r="E225">
-        <f t="shared" si="6"/>
-        <v>727</v>
-      </c>
-      <c r="F225">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B226" t="s">
-        <v>222</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <v>1200</v>
-      </c>
-      <c r="E226">
-        <f t="shared" si="6"/>
-        <v>872</v>
-      </c>
-      <c r="F226">
-        <f t="shared" si="7"/>
-        <v>1200</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B227" t="s">
-        <v>615</v>
-      </c>
-      <c r="C227">
-        <v>614</v>
-      </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-      <c r="E227">
-        <f t="shared" si="6"/>
-        <v>614</v>
-      </c>
-      <c r="F227">
-        <f t="shared" si="7"/>
-        <v>810</v>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B228" t="s">
-        <v>639</v>
-      </c>
-      <c r="C228">
-        <v>614</v>
-      </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228">
-        <f t="shared" si="6"/>
-        <v>614</v>
-      </c>
-      <c r="F228">
-        <f t="shared" si="7"/>
-        <v>810</v>
-      </c>
-      <c r="G228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B229" t="s">
-        <v>126</v>
-      </c>
-      <c r="C229">
-        <v>655</v>
-      </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229">
-        <f t="shared" si="6"/>
-        <v>655</v>
-      </c>
-      <c r="F229">
-        <f t="shared" si="7"/>
-        <v>860</v>
-      </c>
-      <c r="G229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B230" t="s">
-        <v>564</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>2000</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="6"/>
-        <v>1454</v>
-      </c>
-      <c r="F230">
-        <f t="shared" si="7"/>
-        <v>2000</v>
-      </c>
-      <c r="G230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B231" t="s">
-        <v>417</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>3800</v>
-      </c>
-      <c r="E231">
-        <f t="shared" si="6"/>
-        <v>2763</v>
-      </c>
-      <c r="F231">
-        <f t="shared" si="7"/>
-        <v>3800</v>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B232" t="s">
-        <v>817</v>
-      </c>
-      <c r="C232">
-        <v>555</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <f t="shared" si="6"/>
-        <v>555</v>
-      </c>
-      <c r="F232">
-        <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B233" t="s">
-        <v>776</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>1300</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="6"/>
-        <v>945</v>
-      </c>
-      <c r="F233">
-        <f t="shared" si="7"/>
-        <v>1300</v>
-      </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B234" t="s">
-        <v>376</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>2300</v>
-      </c>
-      <c r="E234">
-        <f t="shared" si="6"/>
-        <v>1672</v>
-      </c>
-      <c r="F234">
-        <f t="shared" si="7"/>
-        <v>2300</v>
-      </c>
-      <c r="G234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B235" t="s">
-        <v>843</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235">
-        <v>1200</v>
-      </c>
-      <c r="E235">
-        <f t="shared" si="6"/>
-        <v>872</v>
-      </c>
-      <c r="F235">
-        <f t="shared" si="7"/>
-        <v>1200</v>
-      </c>
-      <c r="G235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B236" t="s">
-        <v>426</v>
-      </c>
-      <c r="C236">
-        <v>737</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <f t="shared" si="6"/>
-        <v>737</v>
-      </c>
-      <c r="F236">
-        <f t="shared" si="7"/>
-        <v>970</v>
-      </c>
-      <c r="G236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B237" t="s">
-        <v>365</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <v>1500</v>
-      </c>
-      <c r="E237">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F237">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B238" t="s">
-        <v>749</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>800</v>
-      </c>
-      <c r="E238">
-        <f t="shared" si="6"/>
-        <v>581</v>
-      </c>
-      <c r="F238">
-        <f t="shared" si="7"/>
-        <v>800</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B239" t="s">
-        <v>746</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <v>700</v>
-      </c>
-      <c r="E239">
-        <f t="shared" si="6"/>
-        <v>509</v>
-      </c>
-      <c r="F239">
-        <f t="shared" si="7"/>
-        <v>700</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B240" t="s">
-        <v>286</v>
-      </c>
-      <c r="C240">
-        <v>586</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
-        <f t="shared" si="6"/>
-        <v>586</v>
-      </c>
-      <c r="F240">
-        <f t="shared" si="7"/>
-        <v>770</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B241" t="s">
-        <v>766</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>800</v>
-      </c>
-      <c r="E241">
-        <f t="shared" si="6"/>
-        <v>581</v>
-      </c>
-      <c r="F241">
-        <f t="shared" si="7"/>
-        <v>800</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B242" t="s">
-        <v>52</v>
-      </c>
-      <c r="C242">
-        <v>311</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
-        <f t="shared" si="6"/>
-        <v>311</v>
-      </c>
-      <c r="F242">
-        <f t="shared" si="7"/>
-        <v>410</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B243" t="s">
-        <v>179</v>
-      </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-      <c r="D243">
-        <v>500</v>
-      </c>
-      <c r="E243">
-        <f t="shared" si="6"/>
-        <v>363</v>
-      </c>
-      <c r="F243">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B244" t="s">
-        <v>546</v>
-      </c>
-      <c r="C244">
-        <v>352</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <f t="shared" si="6"/>
-        <v>352</v>
-      </c>
-      <c r="F244">
-        <f t="shared" si="7"/>
-        <v>460</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B245" t="s">
-        <v>519</v>
-      </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-      <c r="D245">
-        <v>3000</v>
-      </c>
-      <c r="E245">
-        <f t="shared" si="6"/>
-        <v>2181</v>
-      </c>
-      <c r="F245">
-        <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="G245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B246" t="s">
-        <v>621</v>
-      </c>
-      <c r="C246">
-        <v>413</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
-        <f t="shared" si="6"/>
-        <v>413</v>
-      </c>
-      <c r="F246">
-        <f t="shared" si="7"/>
-        <v>540</v>
-      </c>
-      <c r="G246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B247" t="s">
-        <v>679</v>
-      </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
-      <c r="D247">
-        <v>700</v>
-      </c>
-      <c r="E247">
-        <f t="shared" si="6"/>
-        <v>509</v>
-      </c>
-      <c r="F247">
-        <f t="shared" si="7"/>
-        <v>700</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B248" t="s">
-        <v>395</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="D248">
-        <v>1000</v>
-      </c>
-      <c r="E248">
-        <f t="shared" si="6"/>
-        <v>727</v>
-      </c>
-      <c r="F248">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B249" t="s">
-        <v>277</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-      <c r="D249">
-        <v>1500</v>
-      </c>
-      <c r="E249">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F249">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B250" t="s">
-        <v>141</v>
-      </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250">
-        <v>2500</v>
-      </c>
-      <c r="E250">
-        <f t="shared" si="6"/>
-        <v>1818</v>
-      </c>
-      <c r="F250">
-        <f t="shared" si="7"/>
-        <v>2500</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B251" t="s">
-        <v>708</v>
-      </c>
-      <c r="C251">
-        <v>1844</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251">
-        <f t="shared" si="6"/>
-        <v>1844</v>
-      </c>
-      <c r="F251">
-        <f t="shared" si="7"/>
-        <v>2430</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B252" t="s">
-        <v>457</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-      <c r="D252">
-        <v>2500</v>
-      </c>
-      <c r="E252">
-        <f t="shared" si="6"/>
-        <v>1818</v>
-      </c>
-      <c r="F252">
-        <f t="shared" si="7"/>
-        <v>2500</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B253" t="s">
-        <v>733</v>
-      </c>
-      <c r="C253">
-        <v>1311</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
-        <f t="shared" si="6"/>
-        <v>1311</v>
-      </c>
-      <c r="F253">
-        <f t="shared" si="7"/>
-        <v>1730</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B254" t="s">
-        <v>731</v>
-      </c>
-      <c r="C254">
-        <v>1844</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
-        <f t="shared" si="6"/>
-        <v>1844</v>
-      </c>
-      <c r="F254">
-        <f t="shared" si="7"/>
-        <v>2430</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B255" t="s">
-        <v>863</v>
-      </c>
-      <c r="C255">
-        <v>1639</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255">
-        <f t="shared" si="6"/>
-        <v>1639</v>
-      </c>
-      <c r="F255">
-        <f t="shared" si="7"/>
-        <v>2160</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B256" t="s">
-        <v>553</v>
-      </c>
-      <c r="C256">
-        <v>180</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="F256">
-        <f t="shared" si="7"/>
-        <v>230</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B257" t="s">
-        <v>408</v>
-      </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-      <c r="D257">
-        <v>1500</v>
-      </c>
-      <c r="E257">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F257">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B258" t="s">
-        <v>779</v>
-      </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-      <c r="D258">
-        <v>1500</v>
-      </c>
-      <c r="E258">
-        <f t="shared" si="6"/>
-        <v>1090</v>
-      </c>
-      <c r="F258">
-        <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B259" t="s">
-        <v>296</v>
-      </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-      <c r="D259">
-        <v>600</v>
-      </c>
-      <c r="E259">
-        <f t="shared" ref="E259:E322" si="8">IF(C259 = 0,INT((D259 * 0.8)/1.1),C259)</f>
-        <v>436</v>
-      </c>
-      <c r="F259">
-        <f t="shared" ref="F259:F322" si="9">IF(D259=0,INT( ((C259*1.2)*1.1)/10)*10,D259)</f>
-        <v>600</v>
-      </c>
-      <c r="G259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B260" t="s">
-        <v>272</v>
-      </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
-      <c r="D260">
-        <v>2000</v>
-      </c>
-      <c r="E260">
-        <f t="shared" si="8"/>
-        <v>1454</v>
-      </c>
-      <c r="F260">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B261" t="s">
-        <v>119</v>
-      </c>
-      <c r="C261">
-        <v>300</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="F261">
-        <f t="shared" si="9"/>
-        <v>390</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B262" t="s">
-        <v>197</v>
-      </c>
-      <c r="C262">
-        <v>327</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <f t="shared" si="8"/>
-        <v>327</v>
-      </c>
-      <c r="F262">
-        <f t="shared" si="9"/>
-        <v>430</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B263" t="s">
-        <v>849</v>
-      </c>
-      <c r="C263">
-        <v>327</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <f t="shared" si="8"/>
-        <v>327</v>
-      </c>
-      <c r="F263">
-        <f t="shared" si="9"/>
-        <v>430</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B264" t="s">
-        <v>155</v>
-      </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-      <c r="D264">
-        <v>800</v>
-      </c>
-      <c r="E264">
-        <f t="shared" si="8"/>
-        <v>581</v>
-      </c>
-      <c r="F264">
-        <f t="shared" si="9"/>
-        <v>800</v>
-      </c>
-      <c r="G264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B265" t="s">
-        <v>823</v>
-      </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-      <c r="D265">
-        <v>800</v>
-      </c>
-      <c r="E265">
-        <f t="shared" si="8"/>
-        <v>581</v>
-      </c>
-      <c r="F265">
-        <f t="shared" si="9"/>
-        <v>800</v>
-      </c>
-      <c r="G265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B266" t="s">
-        <v>191</v>
-      </c>
-      <c r="C266">
-        <v>311</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266">
-        <f t="shared" si="8"/>
-        <v>311</v>
-      </c>
-      <c r="F266">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="G266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B267" t="s">
-        <v>484</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-      <c r="D267">
-        <v>700</v>
-      </c>
-      <c r="E267">
-        <f t="shared" si="8"/>
-        <v>509</v>
-      </c>
-      <c r="F267">
-        <f t="shared" si="9"/>
-        <v>700</v>
-      </c>
-      <c r="G267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B268" t="s">
-        <v>792</v>
-      </c>
-      <c r="C268">
-        <v>919</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268">
-        <f t="shared" si="8"/>
-        <v>919</v>
-      </c>
-      <c r="F268">
-        <f t="shared" si="9"/>
-        <v>1210</v>
-      </c>
-      <c r="G268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B269" t="s">
-        <v>18</v>
-      </c>
-      <c r="C269">
-        <v>622</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269">
-        <f t="shared" si="8"/>
-        <v>622</v>
-      </c>
-      <c r="F269">
-        <f t="shared" si="9"/>
-        <v>820</v>
-      </c>
-      <c r="G269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B270" t="s">
-        <v>608</v>
-      </c>
-      <c r="C270">
-        <v>622</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
-        <f t="shared" si="8"/>
-        <v>622</v>
-      </c>
-      <c r="F270">
-        <f t="shared" si="9"/>
-        <v>820</v>
-      </c>
-      <c r="G270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B271" t="s">
-        <v>762</v>
-      </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-      <c r="D271">
-        <v>1500</v>
-      </c>
-      <c r="E271">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F271">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B272" t="s">
-        <v>82</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272">
-        <v>1500</v>
-      </c>
-      <c r="E272">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F272">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B273" t="s">
-        <v>257</v>
-      </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-      <c r="D273">
-        <v>10000</v>
-      </c>
-      <c r="E273">
-        <f t="shared" si="8"/>
-        <v>7272</v>
-      </c>
-      <c r="F273">
-        <f t="shared" si="9"/>
-        <v>10000</v>
-      </c>
-      <c r="G273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B274" t="s">
-        <v>21</v>
-      </c>
-      <c r="C274">
-        <v>1885</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
-        <f t="shared" si="8"/>
-        <v>1885</v>
-      </c>
-      <c r="F274">
-        <f t="shared" si="9"/>
-        <v>2480</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B275" t="s">
-        <v>838</v>
-      </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-      <c r="D275">
-        <v>15000</v>
-      </c>
-      <c r="E275">
-        <f t="shared" si="8"/>
-        <v>10909</v>
-      </c>
-      <c r="F275">
-        <f t="shared" si="9"/>
-        <v>15000</v>
-      </c>
-      <c r="G275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B276" t="s">
-        <v>599</v>
-      </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-      <c r="D276">
-        <v>1800</v>
-      </c>
-      <c r="E276">
-        <f t="shared" si="8"/>
-        <v>1309</v>
-      </c>
-      <c r="F276">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B277" t="s">
-        <v>326</v>
-      </c>
-      <c r="C277">
-        <v>4918</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
-        <f t="shared" si="8"/>
-        <v>4918</v>
-      </c>
-      <c r="F277">
-        <f t="shared" si="9"/>
-        <v>6490</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B278" t="s">
-        <v>344</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278">
-        <v>1200</v>
-      </c>
-      <c r="E278">
-        <f t="shared" si="8"/>
-        <v>872</v>
-      </c>
-      <c r="F278">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B279" t="s">
-        <v>753</v>
-      </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-      <c r="D279">
-        <v>1500</v>
-      </c>
-      <c r="E279">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F279">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B280" t="s">
-        <v>638</v>
-      </c>
-      <c r="C280">
-        <v>426</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280">
-        <f t="shared" si="8"/>
-        <v>426</v>
-      </c>
-      <c r="F280">
-        <f t="shared" si="9"/>
-        <v>560</v>
-      </c>
-      <c r="G280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B281" t="s">
-        <v>292</v>
-      </c>
-      <c r="C281">
-        <v>344</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
-        <f t="shared" si="8"/>
-        <v>344</v>
-      </c>
-      <c r="F281">
-        <f t="shared" si="9"/>
-        <v>450</v>
-      </c>
-      <c r="G281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B282" t="s">
-        <v>789</v>
-      </c>
-      <c r="C282">
-        <v>1844</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
-        <f t="shared" si="8"/>
-        <v>1844</v>
-      </c>
-      <c r="F282">
-        <f t="shared" si="9"/>
-        <v>2430</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B283" t="s">
-        <v>361</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283">
-        <v>500</v>
-      </c>
-      <c r="E283">
-        <f t="shared" si="8"/>
-        <v>363</v>
-      </c>
-      <c r="F283">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B284" t="s">
-        <v>67</v>
-      </c>
-      <c r="C284">
-        <v>245</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <f t="shared" si="8"/>
-        <v>245</v>
-      </c>
-      <c r="F284">
-        <f t="shared" si="9"/>
-        <v>320</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B285" t="s">
-        <v>145</v>
-      </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
-      <c r="D285">
-        <v>500</v>
-      </c>
-      <c r="E285">
-        <f t="shared" si="8"/>
-        <v>363</v>
-      </c>
-      <c r="F285">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="G285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B286" t="s">
-        <v>528</v>
-      </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-      <c r="D286">
-        <v>1500</v>
-      </c>
-      <c r="E286">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F286">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B287" t="s">
-        <v>135</v>
-      </c>
-      <c r="C287">
-        <v>327</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287">
-        <f t="shared" si="8"/>
-        <v>327</v>
-      </c>
-      <c r="F287">
-        <f t="shared" si="9"/>
-        <v>430</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B288" t="s">
-        <v>701</v>
-      </c>
-      <c r="C288">
-        <v>327</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <f t="shared" si="8"/>
-        <v>327</v>
-      </c>
-      <c r="F288">
-        <f t="shared" si="9"/>
-        <v>430</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B289" t="s">
-        <v>665</v>
-      </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-      <c r="D289">
-        <v>1000</v>
-      </c>
-      <c r="E289">
-        <f t="shared" si="8"/>
-        <v>727</v>
-      </c>
-      <c r="F289">
-        <f t="shared" si="9"/>
-        <v>1000</v>
-      </c>
-      <c r="G289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B290" t="s">
-        <v>474</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <v>1500</v>
-      </c>
-      <c r="E290">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F290">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B291" t="s">
-        <v>824</v>
-      </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
-      <c r="D291">
-        <v>5000</v>
-      </c>
-      <c r="E291">
-        <f t="shared" si="8"/>
-        <v>3636</v>
-      </c>
-      <c r="F291">
-        <f t="shared" si="9"/>
-        <v>5000</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B292" t="s">
-        <v>293</v>
-      </c>
-      <c r="C292">
-        <v>1844</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292">
-        <f t="shared" si="8"/>
-        <v>1844</v>
-      </c>
-      <c r="F292">
-        <f t="shared" si="9"/>
-        <v>2430</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B293" t="s">
-        <v>784</v>
-      </c>
-      <c r="C293">
-        <v>0</v>
-      </c>
-      <c r="D293">
-        <v>1000</v>
-      </c>
-      <c r="E293">
-        <f t="shared" si="8"/>
-        <v>727</v>
-      </c>
-      <c r="F293">
-        <f t="shared" si="9"/>
-        <v>1000</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B294" t="s">
-        <v>756</v>
-      </c>
-      <c r="C294">
-        <v>0</v>
-      </c>
-      <c r="D294">
-        <v>2500</v>
-      </c>
-      <c r="E294">
-        <f t="shared" si="8"/>
-        <v>1818</v>
-      </c>
-      <c r="F294">
-        <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B295" t="s">
-        <v>801</v>
-      </c>
-      <c r="C295">
-        <v>1465</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
-        <f t="shared" si="8"/>
-        <v>1465</v>
-      </c>
-      <c r="F295">
-        <f t="shared" si="9"/>
-        <v>1930</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B296" t="s">
-        <v>585</v>
-      </c>
-      <c r="C296">
-        <v>0</v>
-      </c>
-      <c r="D296">
-        <v>5500</v>
-      </c>
-      <c r="E296">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="F296">
-        <f t="shared" si="9"/>
-        <v>5500</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B297" t="s">
-        <v>569</v>
-      </c>
-      <c r="C297">
-        <v>0</v>
-      </c>
-      <c r="D297">
-        <v>5500</v>
-      </c>
-      <c r="E297">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="F297">
-        <f t="shared" si="9"/>
-        <v>5500</v>
-      </c>
-      <c r="G297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B298" t="s">
-        <v>175</v>
-      </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <v>1500</v>
-      </c>
-      <c r="E298">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F298">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B299" t="s">
-        <v>860</v>
-      </c>
-      <c r="C299">
-        <v>9016</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
-        <f t="shared" si="8"/>
-        <v>9016</v>
-      </c>
-      <c r="F299">
-        <f t="shared" si="9"/>
-        <v>11900</v>
-      </c>
-      <c r="G299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B300" t="s">
-        <v>497</v>
-      </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-      <c r="D300">
-        <v>13000</v>
-      </c>
-      <c r="E300">
-        <f t="shared" si="8"/>
-        <v>9454</v>
-      </c>
-      <c r="F300">
-        <f t="shared" si="9"/>
-        <v>13000</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B301" t="s">
-        <v>601</v>
-      </c>
-      <c r="C301">
-        <v>0</v>
-      </c>
-      <c r="D301">
-        <v>1200</v>
-      </c>
-      <c r="E301">
-        <f t="shared" si="8"/>
-        <v>872</v>
-      </c>
-      <c r="F301">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B302" t="s">
-        <v>299</v>
-      </c>
-      <c r="C302">
-        <v>983</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302">
-        <f t="shared" si="8"/>
-        <v>983</v>
-      </c>
-      <c r="F302">
-        <f t="shared" si="9"/>
-        <v>1290</v>
-      </c>
-      <c r="G302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B303" t="s">
-        <v>244</v>
-      </c>
-      <c r="C303">
-        <v>983</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303">
-        <f t="shared" si="8"/>
-        <v>983</v>
-      </c>
-      <c r="F303">
-        <f t="shared" si="9"/>
-        <v>1290</v>
-      </c>
-      <c r="G303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B304" t="s">
-        <v>658</v>
-      </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
-      <c r="D304">
-        <v>1800</v>
-      </c>
-      <c r="E304">
-        <f t="shared" si="8"/>
-        <v>1309</v>
-      </c>
-      <c r="F304">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B305" t="s">
-        <v>649</v>
-      </c>
-      <c r="C305">
-        <v>0</v>
-      </c>
-      <c r="D305">
-        <v>3000</v>
-      </c>
-      <c r="E305">
-        <f t="shared" si="8"/>
-        <v>2181</v>
-      </c>
-      <c r="F305">
-        <f t="shared" si="9"/>
-        <v>3000</v>
-      </c>
-      <c r="G305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B306" t="s">
-        <v>372</v>
-      </c>
-      <c r="C306">
-        <v>0</v>
-      </c>
-      <c r="D306">
-        <v>1500</v>
-      </c>
-      <c r="E306">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F306">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B307" t="s">
-        <v>758</v>
-      </c>
-      <c r="C307">
-        <v>0</v>
-      </c>
-      <c r="D307">
-        <v>500</v>
-      </c>
-      <c r="E307">
-        <f t="shared" si="8"/>
-        <v>363</v>
-      </c>
-      <c r="F307">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="G307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B308" t="s">
-        <v>289</v>
-      </c>
-      <c r="C308">
-        <v>655</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308">
-        <f t="shared" si="8"/>
-        <v>655</v>
-      </c>
-      <c r="F308">
-        <f t="shared" si="9"/>
-        <v>860</v>
-      </c>
-      <c r="G308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B309" t="s">
-        <v>830</v>
-      </c>
-      <c r="C309">
-        <v>0</v>
-      </c>
-      <c r="D309">
-        <v>500</v>
-      </c>
-      <c r="E309">
-        <f t="shared" si="8"/>
-        <v>363</v>
-      </c>
-      <c r="F309">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="G309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B310" t="s">
-        <v>311</v>
-      </c>
-      <c r="C310">
-        <v>0</v>
-      </c>
-      <c r="D310">
-        <v>1000</v>
-      </c>
-      <c r="E310">
-        <f t="shared" si="8"/>
-        <v>727</v>
-      </c>
-      <c r="F310">
-        <f t="shared" si="9"/>
-        <v>1000</v>
-      </c>
-      <c r="G310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B311" t="s">
-        <v>567</v>
-      </c>
-      <c r="C311">
-        <v>0</v>
-      </c>
-      <c r="D311">
-        <v>800</v>
-      </c>
-      <c r="E311">
-        <f t="shared" si="8"/>
-        <v>581</v>
-      </c>
-      <c r="F311">
-        <f t="shared" si="9"/>
-        <v>800</v>
-      </c>
-      <c r="G311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B312" t="s">
-        <v>178</v>
-      </c>
-      <c r="C312">
-        <v>0</v>
-      </c>
-      <c r="D312">
-        <v>1500</v>
-      </c>
-      <c r="E312">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F312">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B313" t="s">
-        <v>125</v>
-      </c>
-      <c r="C313">
-        <v>0</v>
-      </c>
-      <c r="D313">
-        <v>2000</v>
-      </c>
-      <c r="E313">
-        <f t="shared" si="8"/>
-        <v>1454</v>
-      </c>
-      <c r="F313">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="G313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B314" t="s">
-        <v>534</v>
-      </c>
-      <c r="C314">
-        <v>0</v>
-      </c>
-      <c r="D314">
-        <v>1500</v>
-      </c>
-      <c r="E314">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F314">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B315" t="s">
-        <v>718</v>
-      </c>
-      <c r="C315">
-        <v>586</v>
-      </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-      <c r="E315">
-        <f t="shared" si="8"/>
-        <v>586</v>
-      </c>
-      <c r="F315">
-        <f t="shared" si="9"/>
-        <v>770</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B316" t="s">
-        <v>122</v>
-      </c>
-      <c r="C316">
-        <v>409</v>
-      </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-      <c r="E316">
-        <f t="shared" si="8"/>
-        <v>409</v>
-      </c>
-      <c r="F316">
-        <f t="shared" si="9"/>
-        <v>530</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B317" t="s">
-        <v>595</v>
-      </c>
-      <c r="C317">
-        <v>0</v>
-      </c>
-      <c r="D317">
-        <v>2000</v>
-      </c>
-      <c r="E317">
-        <f t="shared" si="8"/>
-        <v>1454</v>
-      </c>
-      <c r="F317">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="G317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B318" t="s">
-        <v>158</v>
-      </c>
-      <c r="C318">
-        <v>0</v>
-      </c>
-      <c r="D318">
-        <v>1000</v>
-      </c>
-      <c r="E318">
-        <f t="shared" si="8"/>
-        <v>727</v>
-      </c>
-      <c r="F318">
-        <f t="shared" si="9"/>
-        <v>1000</v>
-      </c>
-      <c r="G318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B319" t="s">
-        <v>588</v>
-      </c>
-      <c r="C319">
-        <v>0</v>
-      </c>
-      <c r="D319">
-        <v>1000</v>
-      </c>
-      <c r="E319">
-        <f t="shared" si="8"/>
-        <v>727</v>
-      </c>
-      <c r="F319">
-        <f t="shared" si="9"/>
-        <v>1000</v>
-      </c>
-      <c r="G319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B320" t="s">
-        <v>263</v>
-      </c>
-      <c r="C320">
-        <v>0</v>
-      </c>
-      <c r="D320">
-        <v>1500</v>
-      </c>
-      <c r="E320">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F320">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B321" t="s">
-        <v>832</v>
-      </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-      <c r="D321">
-        <v>1500</v>
-      </c>
-      <c r="E321">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F321">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B322" t="s">
-        <v>829</v>
-      </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-      <c r="D322">
-        <v>1500</v>
-      </c>
-      <c r="E322">
-        <f t="shared" si="8"/>
-        <v>1090</v>
-      </c>
-      <c r="F322">
-        <f t="shared" si="9"/>
-        <v>1500</v>
-      </c>
-      <c r="G322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B323" t="s">
-        <v>161</v>
-      </c>
-      <c r="C323">
-        <v>0</v>
-      </c>
-      <c r="D323">
-        <v>2500</v>
-      </c>
-      <c r="E323">
-        <f t="shared" ref="E323:E386" si="10">IF(C323 = 0,INT((D323 * 0.8)/1.1),C323)</f>
-        <v>1818</v>
-      </c>
-      <c r="F323">
-        <f t="shared" ref="F323:F386" si="11">IF(D323=0,INT( ((C323*1.2)*1.1)/10)*10,D323)</f>
-        <v>2500</v>
-      </c>
-      <c r="G323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B324" t="s">
-        <v>734</v>
-      </c>
-      <c r="C324">
-        <v>614</v>
-      </c>
-      <c r="D324">
-        <v>0</v>
-      </c>
-      <c r="E324">
-        <f t="shared" si="10"/>
-        <v>614</v>
-      </c>
-      <c r="F324">
-        <f t="shared" si="11"/>
-        <v>810</v>
-      </c>
-      <c r="G324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B325" t="s">
-        <v>626</v>
-      </c>
-      <c r="C325">
-        <v>286</v>
-      </c>
-      <c r="D325">
-        <v>0</v>
-      </c>
-      <c r="E325">
-        <f t="shared" si="10"/>
-        <v>286</v>
-      </c>
-      <c r="F325">
-        <f t="shared" si="11"/>
-        <v>370</v>
-      </c>
-      <c r="G325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B326" t="s">
-        <v>166</v>
-      </c>
-      <c r="C326">
-        <v>0</v>
-      </c>
-      <c r="D326">
-        <v>1800</v>
-      </c>
-      <c r="E326">
-        <f t="shared" si="10"/>
-        <v>1309</v>
-      </c>
-      <c r="F326">
-        <f t="shared" si="11"/>
-        <v>1800</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B327" t="s">
-        <v>826</v>
-      </c>
-      <c r="C327">
-        <v>0</v>
-      </c>
-      <c r="D327">
-        <v>1000</v>
-      </c>
-      <c r="E327">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F327">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B328" t="s">
-        <v>745</v>
-      </c>
-      <c r="C328">
-        <v>0</v>
-      </c>
-      <c r="D328">
-        <v>1000</v>
-      </c>
-      <c r="E328">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F328">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B329" t="s">
-        <v>478</v>
-      </c>
-      <c r="C329">
-        <v>0</v>
-      </c>
-      <c r="D329">
-        <v>2000</v>
-      </c>
-      <c r="E329">
-        <f t="shared" si="10"/>
-        <v>1454</v>
-      </c>
-      <c r="F329">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="G329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B330" t="s">
-        <v>256</v>
-      </c>
-      <c r="C330">
-        <v>0</v>
-      </c>
-      <c r="D330">
-        <v>1500</v>
-      </c>
-      <c r="E330">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F330">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B331" t="s">
-        <v>711</v>
-      </c>
-      <c r="C331">
-        <v>819</v>
-      </c>
-      <c r="D331">
-        <v>0</v>
-      </c>
-      <c r="E331">
-        <f t="shared" si="10"/>
-        <v>819</v>
-      </c>
-      <c r="F331">
-        <f t="shared" si="11"/>
-        <v>1080</v>
-      </c>
-      <c r="G331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B332" t="s">
-        <v>45</v>
-      </c>
-      <c r="C332">
-        <v>409</v>
-      </c>
-      <c r="D332">
-        <v>0</v>
-      </c>
-      <c r="E332">
-        <f t="shared" si="10"/>
-        <v>409</v>
-      </c>
-      <c r="F332">
-        <f t="shared" si="11"/>
-        <v>530</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B333" t="s">
-        <v>359</v>
-      </c>
-      <c r="C333">
-        <v>0</v>
-      </c>
-      <c r="D333">
-        <v>4000</v>
-      </c>
-      <c r="E333">
-        <f t="shared" si="10"/>
-        <v>2909</v>
-      </c>
-      <c r="F333">
-        <f t="shared" si="11"/>
-        <v>4000</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B334" t="s">
-        <v>507</v>
-      </c>
-      <c r="C334">
-        <v>0</v>
-      </c>
-      <c r="D334">
-        <v>3000</v>
-      </c>
-      <c r="E334">
-        <f t="shared" si="10"/>
-        <v>2181</v>
-      </c>
-      <c r="F334">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="G334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B335" t="s">
-        <v>807</v>
-      </c>
-      <c r="C335">
-        <v>2459</v>
-      </c>
-      <c r="D335">
-        <v>0</v>
-      </c>
-      <c r="E335">
-        <f t="shared" si="10"/>
-        <v>2459</v>
-      </c>
-      <c r="F335">
-        <f t="shared" si="11"/>
-        <v>3240</v>
-      </c>
-      <c r="G335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B336" t="s">
-        <v>778</v>
-      </c>
-      <c r="C336">
-        <v>0</v>
-      </c>
-      <c r="D336">
-        <v>7000</v>
-      </c>
-      <c r="E336">
-        <f t="shared" si="10"/>
-        <v>5090</v>
-      </c>
-      <c r="F336">
-        <f t="shared" si="11"/>
-        <v>7000</v>
-      </c>
-      <c r="G336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B337" t="s">
-        <v>152</v>
-      </c>
-      <c r="C337">
-        <v>0</v>
-      </c>
-      <c r="D337">
-        <v>12000</v>
-      </c>
-      <c r="E337">
-        <f t="shared" si="10"/>
-        <v>8727</v>
-      </c>
-      <c r="F337">
-        <f t="shared" si="11"/>
-        <v>12000</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B338" t="s">
-        <v>149</v>
-      </c>
-      <c r="C338">
-        <v>0</v>
-      </c>
-      <c r="D338">
-        <v>12000</v>
-      </c>
-      <c r="E338">
-        <f t="shared" si="10"/>
-        <v>8727</v>
-      </c>
-      <c r="F338">
-        <f t="shared" si="11"/>
-        <v>12000</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B339" t="s">
-        <v>846</v>
-      </c>
-      <c r="C339">
-        <v>0</v>
-      </c>
-      <c r="D339">
-        <v>1000</v>
-      </c>
-      <c r="E339">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F339">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B340" t="s">
-        <v>577</v>
-      </c>
-      <c r="C340">
-        <v>0</v>
-      </c>
-      <c r="D340">
-        <v>2000</v>
-      </c>
-      <c r="E340">
-        <f t="shared" si="10"/>
-        <v>1454</v>
-      </c>
-      <c r="F340">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="G340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B341" t="s">
-        <v>337</v>
-      </c>
-      <c r="C341">
-        <v>0</v>
-      </c>
-      <c r="D341">
-        <v>1500</v>
-      </c>
-      <c r="E341">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F341">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B342" t="s">
-        <v>404</v>
-      </c>
-      <c r="C342">
-        <v>368</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342">
-        <f t="shared" si="10"/>
-        <v>368</v>
-      </c>
-      <c r="F342">
-        <f t="shared" si="11"/>
-        <v>480</v>
-      </c>
-      <c r="G342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B343" t="s">
-        <v>165</v>
-      </c>
-      <c r="C343">
-        <v>0</v>
-      </c>
-      <c r="D343">
-        <v>1200</v>
-      </c>
-      <c r="E343">
-        <f t="shared" si="10"/>
-        <v>872</v>
-      </c>
-      <c r="F343">
-        <f t="shared" si="11"/>
-        <v>1200</v>
-      </c>
-      <c r="G343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B344" t="s">
-        <v>696</v>
-      </c>
-      <c r="C344">
-        <v>0</v>
-      </c>
-      <c r="D344">
-        <v>1500</v>
-      </c>
-      <c r="E344">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F344">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B345" t="s">
-        <v>620</v>
-      </c>
-      <c r="C345">
-        <v>272</v>
-      </c>
-      <c r="D345">
-        <v>0</v>
-      </c>
-      <c r="E345">
-        <f t="shared" si="10"/>
-        <v>272</v>
-      </c>
-      <c r="F345">
-        <f t="shared" si="11"/>
-        <v>350</v>
-      </c>
-      <c r="G345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B346" t="s">
-        <v>802</v>
-      </c>
-      <c r="C346">
-        <v>2213</v>
-      </c>
-      <c r="D346">
-        <v>0</v>
-      </c>
-      <c r="E346">
-        <f t="shared" si="10"/>
-        <v>2213</v>
-      </c>
-      <c r="F346">
-        <f t="shared" si="11"/>
-        <v>2920</v>
-      </c>
-      <c r="G346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B347" t="s">
-        <v>650</v>
-      </c>
-      <c r="C347">
-        <v>0</v>
-      </c>
-      <c r="D347">
-        <v>3000</v>
-      </c>
-      <c r="E347">
-        <f t="shared" si="10"/>
-        <v>2181</v>
-      </c>
-      <c r="F347">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="G347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B348" t="s">
-        <v>266</v>
-      </c>
-      <c r="C348">
-        <v>0</v>
-      </c>
-      <c r="D348">
-        <v>3000</v>
-      </c>
-      <c r="E348">
-        <f t="shared" si="10"/>
-        <v>2181</v>
-      </c>
-      <c r="F348">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="G348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B349" t="s">
-        <v>360</v>
-      </c>
-      <c r="C349">
-        <v>0</v>
-      </c>
-      <c r="D349">
-        <v>3000</v>
-      </c>
-      <c r="E349">
-        <f t="shared" si="10"/>
-        <v>2181</v>
-      </c>
-      <c r="F349">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="G349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B350" t="s">
-        <v>617</v>
-      </c>
-      <c r="C350">
-        <v>1758</v>
-      </c>
-      <c r="D350">
-        <v>0</v>
-      </c>
-      <c r="E350">
-        <f t="shared" si="10"/>
-        <v>1758</v>
-      </c>
-      <c r="F350">
-        <f t="shared" si="11"/>
-        <v>2320</v>
-      </c>
-      <c r="G350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B351" t="s">
-        <v>853</v>
-      </c>
-      <c r="C351">
-        <v>450</v>
-      </c>
-      <c r="D351">
-        <v>0</v>
-      </c>
-      <c r="E351">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="F351">
-        <f t="shared" si="11"/>
-        <v>590</v>
-      </c>
-      <c r="G351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B352" t="s">
-        <v>467</v>
-      </c>
-      <c r="C352">
-        <v>0</v>
-      </c>
-      <c r="D352">
-        <v>800</v>
-      </c>
-      <c r="E352">
-        <f t="shared" si="10"/>
-        <v>581</v>
-      </c>
-      <c r="F352">
-        <f t="shared" si="11"/>
-        <v>800</v>
-      </c>
-      <c r="G352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B353" t="s">
-        <v>356</v>
-      </c>
-      <c r="C353">
-        <v>0</v>
-      </c>
-      <c r="D353">
-        <v>2300</v>
-      </c>
-      <c r="E353">
-        <f t="shared" si="10"/>
-        <v>1672</v>
-      </c>
-      <c r="F353">
-        <f t="shared" si="11"/>
-        <v>2300</v>
-      </c>
-      <c r="G353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B354" t="s">
-        <v>449</v>
-      </c>
-      <c r="C354">
-        <v>0</v>
-      </c>
-      <c r="D354">
-        <v>1800</v>
-      </c>
-      <c r="E354">
-        <f t="shared" si="10"/>
-        <v>1309</v>
-      </c>
-      <c r="F354">
-        <f t="shared" si="11"/>
-        <v>1800</v>
-      </c>
-      <c r="G354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B355" t="s">
-        <v>89</v>
-      </c>
-      <c r="C355">
-        <v>436</v>
-      </c>
-      <c r="D355">
-        <v>0</v>
-      </c>
-      <c r="E355">
-        <f t="shared" si="10"/>
-        <v>436</v>
-      </c>
-      <c r="F355">
-        <f t="shared" si="11"/>
-        <v>570</v>
-      </c>
-      <c r="G355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B356" t="s">
-        <v>15</v>
-      </c>
-      <c r="C356">
-        <v>0</v>
-      </c>
-      <c r="D356">
-        <v>0</v>
-      </c>
-      <c r="E356">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F356">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B357" t="s">
-        <v>791</v>
-      </c>
-      <c r="C357">
-        <v>587</v>
-      </c>
-      <c r="D357">
-        <v>0</v>
-      </c>
-      <c r="E357">
-        <f t="shared" si="10"/>
-        <v>587</v>
-      </c>
-      <c r="F357">
-        <f t="shared" si="11"/>
-        <v>770</v>
-      </c>
-      <c r="G357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B358" t="s">
-        <v>797</v>
-      </c>
-      <c r="C358">
-        <v>524</v>
-      </c>
-      <c r="D358">
-        <v>0</v>
-      </c>
-      <c r="E358">
-        <f t="shared" si="10"/>
-        <v>524</v>
-      </c>
-      <c r="F358">
-        <f t="shared" si="11"/>
-        <v>690</v>
-      </c>
-      <c r="G358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B359" t="s">
-        <v>440</v>
-      </c>
-      <c r="C359">
-        <v>512</v>
-      </c>
-      <c r="D359">
-        <v>0</v>
-      </c>
-      <c r="E359">
-        <f t="shared" si="10"/>
-        <v>512</v>
-      </c>
-      <c r="F359">
-        <f t="shared" si="11"/>
-        <v>670</v>
-      </c>
-      <c r="G359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B360" t="s">
-        <v>70</v>
-      </c>
-      <c r="C360">
-        <v>1844</v>
-      </c>
-      <c r="D360">
-        <v>0</v>
-      </c>
-      <c r="E360">
-        <f t="shared" si="10"/>
-        <v>1844</v>
-      </c>
-      <c r="F360">
-        <f t="shared" si="11"/>
-        <v>2430</v>
-      </c>
-      <c r="G360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B361" t="s">
-        <v>856</v>
-      </c>
-      <c r="C361">
-        <v>1721</v>
-      </c>
-      <c r="D361">
-        <v>0</v>
-      </c>
-      <c r="E361">
-        <f t="shared" si="10"/>
-        <v>1721</v>
-      </c>
-      <c r="F361">
-        <f t="shared" si="11"/>
-        <v>2270</v>
-      </c>
-      <c r="G361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B362" t="s">
-        <v>219</v>
-      </c>
-      <c r="C362">
-        <v>0</v>
-      </c>
-      <c r="D362">
-        <v>9000</v>
-      </c>
-      <c r="E362">
-        <f t="shared" si="10"/>
-        <v>6545</v>
-      </c>
-      <c r="F362">
-        <f t="shared" si="11"/>
-        <v>9000</v>
-      </c>
-      <c r="G362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B363" t="s">
-        <v>629</v>
-      </c>
-      <c r="C363">
-        <v>450</v>
-      </c>
-      <c r="D363">
-        <v>0</v>
-      </c>
-      <c r="E363">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="F363">
-        <f t="shared" si="11"/>
-        <v>590</v>
-      </c>
-      <c r="G363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B364" t="s">
-        <v>841</v>
-      </c>
-      <c r="C364">
-        <v>0</v>
-      </c>
-      <c r="D364">
-        <v>1500</v>
-      </c>
-      <c r="E364">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F364">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B365" t="s">
-        <v>752</v>
-      </c>
-      <c r="C365">
-        <v>0</v>
-      </c>
-      <c r="D365">
-        <v>1000</v>
-      </c>
-      <c r="E365">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F365">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B366" t="s">
-        <v>300</v>
-      </c>
-      <c r="C366">
-        <v>901</v>
-      </c>
-      <c r="D366">
-        <v>0</v>
-      </c>
-      <c r="E366">
-        <f t="shared" si="10"/>
-        <v>901</v>
-      </c>
-      <c r="F366">
-        <f t="shared" si="11"/>
-        <v>1180</v>
-      </c>
-      <c r="G366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B367" t="s">
-        <v>669</v>
-      </c>
-      <c r="C367">
-        <v>0</v>
-      </c>
-      <c r="D367">
-        <v>2000</v>
-      </c>
-      <c r="E367">
-        <f t="shared" si="10"/>
-        <v>1454</v>
-      </c>
-      <c r="F367">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="G367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B368" t="s">
-        <v>420</v>
-      </c>
-      <c r="C368">
-        <v>901</v>
-      </c>
-      <c r="D368">
-        <v>0</v>
-      </c>
-      <c r="E368">
-        <f t="shared" si="10"/>
-        <v>901</v>
-      </c>
-      <c r="F368">
-        <f t="shared" si="11"/>
-        <v>1180</v>
-      </c>
-      <c r="G368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B369" t="s">
-        <v>42</v>
-      </c>
-      <c r="C369">
-        <v>1844</v>
-      </c>
-      <c r="D369">
-        <v>0</v>
-      </c>
-      <c r="E369">
-        <f t="shared" si="10"/>
-        <v>1844</v>
-      </c>
-      <c r="F369">
-        <f t="shared" si="11"/>
-        <v>2430</v>
-      </c>
-      <c r="G369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B370" t="s">
-        <v>169</v>
-      </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
-      <c r="D370">
-        <v>1500</v>
-      </c>
-      <c r="E370">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F370">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B371" t="s">
-        <v>622</v>
-      </c>
-      <c r="C371">
-        <v>450</v>
-      </c>
-      <c r="D371">
-        <v>0</v>
-      </c>
-      <c r="E371">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="F371">
-        <f t="shared" si="11"/>
-        <v>590</v>
-      </c>
-      <c r="G371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B372" t="s">
-        <v>225</v>
-      </c>
-      <c r="C372">
-        <v>1803</v>
-      </c>
-      <c r="D372">
-        <v>0</v>
-      </c>
-      <c r="E372">
-        <f t="shared" si="10"/>
-        <v>1803</v>
-      </c>
-      <c r="F372">
-        <f t="shared" si="11"/>
-        <v>2370</v>
-      </c>
-      <c r="G372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B373" t="s">
-        <v>33</v>
-      </c>
-      <c r="C373">
-        <v>0</v>
-      </c>
-      <c r="D373">
-        <v>1500</v>
-      </c>
-      <c r="E373">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F373">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B374" t="s">
-        <v>391</v>
-      </c>
-      <c r="C374">
-        <v>1704</v>
-      </c>
-      <c r="D374">
-        <v>0</v>
-      </c>
-      <c r="E374">
-        <f t="shared" si="10"/>
-        <v>1704</v>
-      </c>
-      <c r="F374">
-        <f t="shared" si="11"/>
-        <v>2240</v>
-      </c>
-      <c r="G374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B375" t="s">
-        <v>252</v>
-      </c>
-      <c r="C375">
-        <v>0</v>
-      </c>
-      <c r="D375">
-        <v>1500</v>
-      </c>
-      <c r="E375">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F375">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B376" t="s">
-        <v>146</v>
-      </c>
-      <c r="C376">
-        <v>0</v>
-      </c>
-      <c r="D376">
-        <v>1500</v>
-      </c>
-      <c r="E376">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F376">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B377" t="s">
-        <v>79</v>
-      </c>
-      <c r="C377">
-        <v>0</v>
-      </c>
-      <c r="D377">
-        <v>2000</v>
-      </c>
-      <c r="E377">
-        <f t="shared" si="10"/>
-        <v>1454</v>
-      </c>
-      <c r="F377">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="G377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B378" t="s">
-        <v>352</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-      <c r="D378">
-        <v>1500</v>
-      </c>
-      <c r="E378">
-        <f t="shared" si="10"/>
-        <v>1090</v>
-      </c>
-      <c r="F378">
-        <f t="shared" si="11"/>
-        <v>1500</v>
-      </c>
-      <c r="G378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B379" t="s">
-        <v>349</v>
-      </c>
-      <c r="C379">
-        <v>0</v>
-      </c>
-      <c r="D379">
-        <v>700</v>
-      </c>
-      <c r="E379">
-        <f t="shared" si="10"/>
-        <v>509</v>
-      </c>
-      <c r="F379">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="G379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B380" t="s">
-        <v>705</v>
-      </c>
-      <c r="C380">
-        <v>1696</v>
-      </c>
-      <c r="D380">
-        <v>0</v>
-      </c>
-      <c r="E380">
-        <f t="shared" si="10"/>
-        <v>1696</v>
-      </c>
-      <c r="F380">
-        <f t="shared" si="11"/>
-        <v>2230</v>
-      </c>
-      <c r="G380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B381" t="s">
-        <v>668</v>
-      </c>
-      <c r="C381">
-        <v>0</v>
-      </c>
-      <c r="D381">
-        <v>500</v>
-      </c>
-      <c r="E381">
-        <f t="shared" si="10"/>
-        <v>363</v>
-      </c>
-      <c r="F381">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="G381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B382" t="s">
-        <v>255</v>
-      </c>
-      <c r="C382">
-        <v>0</v>
-      </c>
-      <c r="D382">
-        <v>1000</v>
-      </c>
-      <c r="E382">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F382">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B383" t="s">
-        <v>73</v>
-      </c>
-      <c r="C383">
-        <v>0</v>
-      </c>
-      <c r="D383">
-        <v>1000</v>
-      </c>
-      <c r="E383">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F383">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B384" t="s">
-        <v>334</v>
-      </c>
-      <c r="C384">
-        <v>0</v>
-      </c>
-      <c r="D384">
-        <v>1000</v>
-      </c>
-      <c r="E384">
-        <f t="shared" si="10"/>
-        <v>727</v>
-      </c>
-      <c r="F384">
-        <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="G384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B385" t="s">
-        <v>793</v>
-      </c>
-      <c r="C385">
-        <v>491</v>
-      </c>
-      <c r="D385">
-        <v>0</v>
-      </c>
-      <c r="E385">
-        <f t="shared" si="10"/>
-        <v>491</v>
-      </c>
-      <c r="F385">
-        <f t="shared" si="11"/>
-        <v>640</v>
-      </c>
-      <c r="G385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B386" t="s">
-        <v>231</v>
-      </c>
-      <c r="C386">
-        <v>311</v>
-      </c>
-      <c r="D386">
-        <v>0</v>
-      </c>
-      <c r="E386">
-        <f t="shared" si="10"/>
-        <v>311</v>
-      </c>
-      <c r="F386">
-        <f t="shared" si="11"/>
-        <v>410</v>
-      </c>
-      <c r="G386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B387" t="s">
-        <v>596</v>
-      </c>
-      <c r="C387">
-        <v>0</v>
-      </c>
-      <c r="D387">
-        <v>1500</v>
-      </c>
-      <c r="E387">
-        <f t="shared" ref="E387:E394" si="12">IF(C387 = 0,INT((D387 * 0.8)/1.1),C387)</f>
-        <v>1090</v>
-      </c>
-      <c r="F387">
-        <f t="shared" ref="F387:F394" si="13">IF(D387=0,INT( ((C387*1.2)*1.1)/10)*10,D387)</f>
-        <v>1500</v>
-      </c>
-      <c r="G387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B388" t="s">
-        <v>76</v>
-      </c>
-      <c r="C388">
-        <v>0</v>
-      </c>
-      <c r="D388">
-        <v>1500</v>
-      </c>
-      <c r="E388">
-        <f t="shared" si="12"/>
-        <v>1090</v>
-      </c>
-      <c r="F388">
-        <f t="shared" si="13"/>
-        <v>1500</v>
-      </c>
-      <c r="G388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B389" t="s">
-        <v>498</v>
-      </c>
-      <c r="C389">
-        <v>368</v>
-      </c>
-      <c r="D389">
-        <v>0</v>
-      </c>
-      <c r="E389">
-        <f t="shared" si="12"/>
-        <v>368</v>
-      </c>
-      <c r="F389">
-        <f t="shared" si="13"/>
-        <v>480</v>
-      </c>
-      <c r="G389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B390" t="s">
-        <v>320</v>
-      </c>
-      <c r="C390">
-        <v>573</v>
-      </c>
-      <c r="D390">
-        <v>0</v>
-      </c>
-      <c r="E390">
-        <f t="shared" si="12"/>
-        <v>573</v>
-      </c>
-      <c r="F390">
-        <f t="shared" si="13"/>
-        <v>750</v>
-      </c>
-      <c r="G390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B391" t="s">
-        <v>307</v>
-      </c>
-      <c r="C391">
-        <v>0</v>
-      </c>
-      <c r="D391">
-        <v>2500</v>
-      </c>
-      <c r="E391">
-        <f t="shared" si="12"/>
-        <v>1818</v>
-      </c>
-      <c r="F391">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="G391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B392" t="s">
-        <v>651</v>
-      </c>
-      <c r="C392">
-        <v>0</v>
-      </c>
-      <c r="D392">
-        <v>3000</v>
-      </c>
-      <c r="E392">
-        <f t="shared" si="12"/>
-        <v>2181</v>
-      </c>
-      <c r="F392">
-        <f t="shared" si="13"/>
-        <v>3000</v>
-      </c>
-      <c r="G392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B393" t="s">
-        <v>504</v>
-      </c>
-      <c r="C393">
-        <v>409</v>
-      </c>
-      <c r="D393">
-        <v>0</v>
-      </c>
-      <c r="E393">
-        <f t="shared" si="12"/>
-        <v>409</v>
-      </c>
-      <c r="F393">
-        <f t="shared" si="13"/>
-        <v>530</v>
-      </c>
-      <c r="G393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B394" t="s">
-        <v>164</v>
-      </c>
-      <c r="C394">
-        <v>0</v>
-      </c>
-      <c r="D394">
-        <v>1000</v>
-      </c>
-      <c r="E394">
-        <f t="shared" si="12"/>
-        <v>727</v>
-      </c>
-      <c r="F394">
-        <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="G394">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
